--- a/src/downloads/ui5con_2017_agenda.xlsx
+++ b/src/downloads/ui5con_2017_agenda.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D038767\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D050079\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392"/>
+    <workbookView xWindow="1395" yWindow="0" windowWidth="23040" windowHeight="7920"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda UI5con@SAP" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,16 +25,1870 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>stub file</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="200">
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Track A</t>
+  </si>
+  <si>
+    <t>Track B</t>
+  </si>
+  <si>
+    <t>Track C</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Speaker Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Session Abstract</t>
+  </si>
+  <si>
+    <t>Booth 1</t>
+  </si>
+  <si>
+    <t>Booth 2</t>
+  </si>
+  <si>
+    <t>Booth 3</t>
+  </si>
+  <si>
+    <t>Session Title</t>
+  </si>
+  <si>
+    <t>Tom Van Doorslaer</t>
+  </si>
+  <si>
+    <t>Maxim Naidenov</t>
+  </si>
+  <si>
+    <t>DJ Adams</t>
+  </si>
+  <si>
+    <t>Gregor Brett</t>
+  </si>
+  <si>
+    <t>Thilo Seidel</t>
+  </si>
+  <si>
+    <t>Denny Schreber</t>
+  </si>
+  <si>
+    <t>Martin Schaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislava Baltova
+Yavor Ivanov </t>
+  </si>
+  <si>
+    <t>Vincent Weiss</t>
+  </si>
+  <si>
+    <t>Ondrej Bohaciak
+Vaclav Vopenka</t>
+  </si>
+  <si>
+    <t>Alexander Flammer</t>
+  </si>
+  <si>
+    <t>Alexander Rauh</t>
+  </si>
+  <si>
+    <t>Mikhail Benderskiy
+Christian Voshage</t>
+  </si>
+  <si>
+    <t>Frederic Berg</t>
+  </si>
+  <si>
+    <t>Dmitriy Buslov</t>
+  </si>
+  <si>
+    <t>Yavor Ivanov
+Stanislava Baltova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gergana Kremenska </t>
+  </si>
+  <si>
+    <t>Petya Begovska</t>
+  </si>
+  <si>
+    <t>Aparna Narayanaswamy</t>
+  </si>
+  <si>
+    <t>Michael Graf</t>
+  </si>
+  <si>
+    <t>HP Seitz</t>
+  </si>
+  <si>
+    <t>Vered Constantin</t>
+  </si>
+  <si>
+    <t>Volker Buzek</t>
+  </si>
+  <si>
+    <t>Patric Ksinsik
+Thomas Chadzelek</t>
+  </si>
+  <si>
+    <t>Andreas Kunz</t>
+  </si>
+  <si>
+    <t>Benedikt Schölch
+Tobias Sorn</t>
+  </si>
+  <si>
+    <t>Mateusz Skadorwa
+Tomasz Wilk</t>
+  </si>
+  <si>
+    <t>Jan Zaruba
+Tomas Krejci</t>
+  </si>
+  <si>
+    <t>Matthias Oßwald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias Oßwald
+Merlin Beutlberger </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Muessig 
+Andreas Ecker </t>
+  </si>
+  <si>
+    <t>Peter Muessig
+Matthias Osswald
+Frank Weigel</t>
+  </si>
+  <si>
+    <t>Michael Dell 
+Jascha Quintern</t>
+  </si>
+  <si>
+    <t>Savio Dimatteo</t>
+  </si>
+  <si>
+    <t>Holger Schäfer</t>
+  </si>
+  <si>
+    <t>Lóránt Guth
+András Kónya</t>
+  </si>
+  <si>
+    <t>Helmut Tammen</t>
+  </si>
+  <si>
+    <t>Meredith Hassett</t>
+  </si>
+  <si>
+    <t>Jiawei Cao
+Malte Wedel</t>
+  </si>
+  <si>
+    <t>Ian Robert Taylor, Dirk Teufel</t>
+  </si>
+  <si>
+    <t>I admit, offline UI5 apps are not exactly "Wow!". It's been done before, many many times. 
+Except that,… well I've done it many times according to the SAP Standards and using the SMP SDK. It’s tedious, and comes at a cost.
+So I figured: I can improve this.
+• First of all, if you're developing in openUI5, you don't always have an oData service in the backend. More often than not, you'll be limited to a JSON service. So the offline oData Plugin is not an option. More so since you need an SMP license and you might not be in an SAP environment.
+• Secondly, the SAP ERP data model is very ill-suited for data synchronizations. If you're not working on an SAP backend and you can still influence the data model, better do it right.
+• Thirdly, executing operations on UI5 models is cumbersome, since you need to access the entity using a path, pull the data out, call some function with the data, catch the result and move it back into the model-entity… Cumbersome…
+Bit by bit, we'll tackle each of these issues and introduce:
+• Timesliced database
+• BusinessObjects (no, not businessObjects-analytics, but software represenations of a business object, as in OO)
+• BusinessObjectModel
+• Local DB
+• Synch-model</t>
+  </si>
+  <si>
+    <t>Writing reliable application tests for web applications has never been easy. Modern JavaScript-centric frameworks like UI5 have made this even more complicated as the application UI is generated completely asynchronously by JavaScript code. The main challenge for an application test creator is to write a test that does not suffer from sporadic failures that dismiss its value as a testing tool. Together with all its enterprise qualities, OpenUI5 provides a state-of-the-art application testing framework called OPA. Using it, everyone can write application tests that synchronize with the state of the UI5 framework and provide inherent reliability without any explicit efforts from the test. Together with support for backend mocking provided from the MockServer one could build extensive, self-contained test suites that cover most UI interactions supported by the application. 
+In this session we will start from an existing UI5 application and build an OPA test for some of its UI interaction scenarios. We will cover all aspects of test setup, selecting and interacting with UI5 controls, execution and debugging. We will also touch some advanced topics like structuring the tests in page objects and journeys, custom matchers and interaction with composite controls.</t>
+  </si>
+  <si>
+    <t>Functional programming techniques allow you to write solid-state code, more stable and easier to reason about. In this session you'll get the chance to learn what it's like to use functional programming techniques in your code. Rather than look at code on slides, you'll write it yourself, guided by the session lead, to get a feel for the code under your fingertips and how it works. We'll take some standard UI5 demo apps and replace sections by introducing mechanisms such as currying, partial application and point-free coding, with a healthy dose of list-orientation and immutability.</t>
+  </si>
+  <si>
+    <t>Building a Conversational UI for the Fiori My Inbox app using API.AI. I will run through the code needed and do a live demo.</t>
+  </si>
+  <si>
+    <t>Let`s build a simple FLP plugin (based on a UI5 Component) together. Once deployed to a FLP on Cloud Platform we will start to use the renderer extension api of FLP to place SAPUI5 controls into the FLP UI to improve the user experience of the Lauchpad AND learn that SAPUI5 and Fiori Launchpad are actually of the same kind.</t>
+  </si>
+  <si>
+    <t>Session Description: In this session I will discuss options how UI5 web apps can be used as a basis for apps beyond your typical office requirements. While SAP Fiori apps and Fiori LaunchPad are the basis for SAPs Digital Workplace of the future, there exist much more possibilities how the web can be the basis for your digitalization efforts. We are looking into WebAPIs, standards such as WebRTC and 3rd party extensions and how this can be applied in enterprise settings. Adding Cloud APIs into the mix, lots of demand for feature-rich apps can already be fulfilled leveraging the web.</t>
+  </si>
+  <si>
+    <t>Demo new upcoming features of UI5 regarding Metadata Driven Controls. 
+Allow to manipulate the artifacts live in an editor and see the immediate result. 
+Create custom control using a Fragment Control, add a Swagger service to the View and enhance the metadata.
+Drive the new custom control and other UI controls from the metadata.</t>
+  </si>
+  <si>
+    <t>Find out everything you need to know about the new version of SAP Fiori. Learn what makes Fiori 2.0 different and which are the new UI5 features empowering Fiori 2.0 experience.
+In this session we will show and tell how to develop your Fiori 2.0 app from scratch and even more - how to migrate your existing app to Fiori 2.0.</t>
+  </si>
+  <si>
+    <t>Sometimes you still need to get a signature confirmation of a work order and generate a PDF including this signature to confirm the work done.
+How can you do that on the client side and display the PDF as well, to show exactly what the client confirmed. Both on a mobile device as well as on the desktop, including IE11.</t>
+  </si>
+  <si>
+    <t>We will present newly released and upcoming controls which we have developed in Brno Suite Controls team. We will have prototypes and demos ready for the upcoming controls and demo apps for released controls. We’ll be happy to answer any questions regarding implementation of our controls in your apps.</t>
+  </si>
+  <si>
+    <t>This session covers the development of custom ESLint rules for UI5 projects.
+          Expand your static code checks to your specific needs - whether you want to 
+          make sure that certain coding standards are followed or some statements are not being used, 
+            you can do all of this with custom ESLint Rules integrating into your CI process.</t>
+  </si>
+  <si>
+    <t>What is SAP's new extensibility approach all about? Well, the key is flexibility. Partners and customers need to adapt the UIs of SAP apps, for example add, hide or rearrange fields. Sounds technical and complicated? SAPUI5 extensibility changes all that allowing upgrade-safe, modification-free, and role-based UI changes with intuitive and easy-to-use tools – even for non-developers.
+What's the strategy behind it, what are the benefits, and what's the roadmap? In this session you'll find out.</t>
+  </si>
+  <si>
+    <t>Your application users have various good reasons for adapting their UI: to support their own business cases more efficient, to simplify workflows or to improve usability. Join us in this session to learn, why SAPUI5s innovative solution — UI Adaptation at Runtime (RTA) makes at as simple and efficient as never before, discuss your use-cases with our experts and share your own experience about UI extensibility! Complicated was in the past, now comes Flexibility!</t>
+  </si>
+  <si>
+    <t>In this session, we will demonstrate how to get started on cloud foundry. We will see how to onboard onto the platform, install the necessary tools and deploy a UI5 application which makes use of platform services to persist its data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebVR is an open standard that makes it possible to experience Virtual Reality in the browser. 
+In this session I will show an example of OpenUI5 component for VR and a little extension with Mixed Reality. </t>
+  </si>
+  <si>
+    <t>You use openui5 to build your publicly facing home page and site content. There are few tricks you can use to make sure search engines can find and understand your content. You will learn about structuring your links, JS rendering of dynamic content and more advanced topics like pre-rendering.</t>
+  </si>
+  <si>
+    <t>In this session we will present the improvements we’ve added to SAPUI5 Supportability : 
+- Brand new Support Assistant tool enables application developers to check whether their applications follow the guidelines and are built according to the best practices. 
+- With Support Rules supplied by SAP, that are also easy to be authored directly in the Support Assistant tool, developers and designers can benefit from best advices how to avoid well known common mistakes and improvement hints on-the-spot of running application. 
+- Overview of other Support/Troubleshooting tools will be provided as well</t>
+  </si>
+  <si>
+    <t>The starting point for everyone working with UI5 is the Demo Kit Application. Here you can find all the needed information such as API Reference, Developer Guide, Samples and Demo apps. 
+Now, it is completely redesigned to showcase the innovative, responsive and multi theme capable UI5 framework! 
+Come and see the new Demo Kit app accessible on any device, with modern look and feel and easy to use. Provide your valuable feedback so we can make it even better!</t>
+  </si>
+  <si>
+    <t>Project Details available as PPT in : https://jam4.sapjam.com/ideas/Nx4hRIyUsWOvz0qPxx0VmB  , Project is in GitHub : https://github.wdf.sap.corp/D067009/FioriViaSpeech . Please note that this was already presented in the Innovation Week 2016 for our Unit.</t>
+  </si>
+  <si>
+    <t>This session will show the status of the community-driven “Custom UI5 Repo” project that we have just kicked of today. 
+We don’t know yet what exactly it will look like as we drive it together with the community. Therefore, we need to fine-tune the abstract later on but it would be a really good showcase for UI5con.
+Depending on the status of the project in June we will 
+• Show the current plans and working mode
+• Highlight the community engagement and encourage participants to join in
+• Show the prototype or working repository and the content that we have aggregated so far</t>
+  </si>
+  <si>
+    <t>Especially with the availability of SAP HANA Express Edition since 
+September 2016 every developers has the possibility to do full-stack 
+JavaScript development with SAP Backend. The session will demonstrate 
+utilizing SAPUI5 on the SAP HANA Platform with HANA XSA (Node.js) using 
+SAP Web IDE for SAP HANA and also an external IDE like WebStorm.
+This is the logical successor of the session "Full-stack JavaScript with 
+OpenUI5" about the NEMO stack from the first UI5Con in Frankfurt.</t>
+  </si>
+  <si>
+    <t>Did you know you can create beautiful SAP Fiori applications without any coding?
+This is now possible with the innovative SAP Web IDE RAD perspective that allows you to view and modify your application using visual editors.
+You don't have to deal with complex technologies no more, from now on you can use SAP Web IDE RAD perspective and layout editor to add pages to your app, edit the UI, drag &amp; drop controls, create event handlers, add bindings and much more. 
+All without a single line of code!</t>
+  </si>
+  <si>
+    <t>It all started with a Proof-of-Concept of a UI5 hybrid application for discrete object recognition on mobile devices. In the course of the PoC, research led to several experiments around the key words in the session title: from real-time Image manipulation via visual object recognition up to Augmented Reality flavors, all of that within the UI5 framework. I'd like to show the results of the experiments and evaluate their sustainability and production readiness.</t>
+  </si>
+  <si>
+    <t>Why is there the new OData Version 4.0 and how does UI5 support for it differ from OData V2 support? Learn about the architecture principles of the UI5 OData V4 model, its feature set and the current implementation status.</t>
+  </si>
+  <si>
+    <t>Have you developed your own UI5 controls? Yes? It’s getting even easier now! We are working on new ways to bind data within composite controls and to even declare controls by combining others in so-called “FragmentControls”! (straight from the lab, never seen before)</t>
+  </si>
+  <si>
+    <t>Make your app future proof by taking the advantage of Service Workers in combination with UI5. In this talk you should learn about the new opportunities you have with Service Workers when applied to a UI5 application.</t>
+  </si>
+  <si>
+    <t>SAP Web IDE is THE development environment for SAPUI5, mobile and other applications. Wouldn't it be great if you could extend it by adding new development capabilities and features? This is now possible. SAP Web IDE allows you to create extensions through which you can add new functionality to the SAP Web IDE and improve the development experience. In this session, we will present how you can develop, test and share with the development community your own SAP Web IDE features. We will show a real use case, that already leverages this capability, written by Flexso, an SAP partner.</t>
+  </si>
+  <si>
+    <t>IoT is the future, and SAP HANA is already future compatible. Is SAPUI5 the door for the users, to enter?
+IoT scenario will be presented, using such elements as Arduino, SAP HANA and SAPUI5.
+Temperature data are put in the HANA database, they are displayed in UI5 application in a chart, update in real time.
+The strong point of this presentation is the full stack development of IoT scenario, SAP makes it happen.</t>
+  </si>
+  <si>
+    <t>Movement from native Android to UI5 in order to show the way over hybrid application with Cordova using native business logic. 
+Problems, learnings and outlook to move it to JS.</t>
+  </si>
+  <si>
+    <t>Get a deep dive into how theming in UI5 works and how to easily build your own themes.
+This includes
+- Introduction into Less.js
+- Theme structure and extension
+- Usage of Node.js based build tools to compile custom themes</t>
+  </si>
+  <si>
+    <t>Learn how to continuously develop, build and test UI5 Apps using Open Source Node.js based tools.
+You will see how to apply dependency loading, bundling, minification und automated testing in your UI5</t>
+  </si>
+  <si>
+    <t>This session will present the ideas, concept and current state of UI5 evolution. The evolution of the core framework, rendering layer and build tooling could be shown; eventually an outlook for a new programming model layer. Maybe, this topic would be worth to be part of the “keynote” of the UI5con as it is of a very fundamental interest. 
+Depending on the status of the project in June we will be able to present the status of the project and/or even hands-on to show-case the already achieved improvements with regards to self-contained builds of UI5 applications as well as a new build tooling.</t>
+  </si>
+  <si>
+    <t>Describes the components concepts and especially the concept of the descriptor with regards to performance improvements (manifest first, async loading, model preloading, …)</t>
+  </si>
+  <si>
+    <t>Based on a public OpenUI5 boilerplate project (not published, yet) we want to share our experience and knowledge on how to setup and use a modern OpenUI5 app structure and build process by using Babel, Flow and Gulp (especially addressing non-SAP developers). Furthermore an overview of very useful best practices, does &amp; don'ts and quick enhancements (like new useful methods in the app Component and BaseController) that should speed up your development workflow and that keep the app maintainable and scalable.</t>
+  </si>
+  <si>
+    <t>With UI5, you don’t need to struggle with the dilemmas of happiness which oblige you to choose one from time and money. You can have both of them! Oh, here we mean that you can have both time and money perfectly formatted across different locales.
+In this session, we will present the most exciting features of core.format.NumberFormat and core.format.DateFormat with interactive examples. We will demonstrate how we tackle the seemingly easy but actual complicated task to perfectly format date and number across different locales.</t>
+  </si>
+  <si>
+    <t>In this Demo Booth session we will explain the concepts of Drafts, which enable a concept for editing entities.
+Two way binding provides a mechanism to maintain entities, but does not offer the feature to lock an entity during editing nor the option to control the visibility of a changed entity.
+In this session we examine the features needed from OData and from Function Imports that provide the mechanism to enable Drafts in a Freestyle Fiori App according to the SAP Fiori UX Guidelines.</t>
+  </si>
+  <si>
+    <t>Open-sourcing Offline UI5 apps</t>
+  </si>
+  <si>
+    <t>Write reliable application tests for your SAP UI5 application</t>
+  </si>
+  <si>
+    <t>Building a companion conversational UI for a Fiori App</t>
+  </si>
+  <si>
+    <t>FLP meets SAPUI5 – extending the fiori Launchpad</t>
+  </si>
+  <si>
+    <t>UI5 Apps beyond the office</t>
+  </si>
+  <si>
+    <t>Metadata Driven Controls / Fragment Controls / Create UI for a Swagger Service</t>
+  </si>
+  <si>
+    <t>Fiori 2.0 for Your Application</t>
+  </si>
+  <si>
+    <t>Working with PDFs in a (mobile) UI5 App</t>
+  </si>
+  <si>
+    <t>Developing Custom ESLint Rules</t>
+  </si>
+  <si>
+    <t>Adapting UI @ Runtime : Everything you always wanted to know about it</t>
+  </si>
+  <si>
+    <t>Getting started with UI5 on Cloud Foundry</t>
+  </si>
+  <si>
+    <t>Mixed Reality with OpenUI5</t>
+  </si>
+  <si>
+    <t>Search Engine Optimization for Openui5 Apps</t>
+  </si>
+  <si>
+    <t>UI5 Supportability Reloaded</t>
+  </si>
+  <si>
+    <t>Showcase New Demo Kit- Your Doorway to UI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlling UI5 Apps and FLP via Speech </t>
+  </si>
+  <si>
+    <t>Collaborators Wanted – The UI5 Community and SAP present the “Custom UI5 Repo”</t>
+  </si>
+  <si>
+    <t>SAPUI5 on SAP HANA XSA - SAP Full-stack JavaScript Development</t>
+  </si>
+  <si>
+    <t>Upcoming – UI5 OData V4 Model</t>
+  </si>
+  <si>
+    <t>Create your own UI5 controls – part two: what’s coming up</t>
+  </si>
+  <si>
+    <t>Leveraging Service Workers</t>
+  </si>
+  <si>
+    <t>Plug in your feature into SAP Web IDE</t>
+  </si>
+  <si>
+    <t>IoT full stack scenario</t>
+  </si>
+  <si>
+    <t>From native Android to UI5</t>
+  </si>
+  <si>
+    <t>UI5 Theming explained</t>
+  </si>
+  <si>
+    <t>UI5 Evolution – increase performance, fix architectural gaps, embrace technologies</t>
+  </si>
+  <si>
+    <t>Components – more performance!</t>
+  </si>
+  <si>
+    <t>A modern OpenUI5 app project boilerplate</t>
+  </si>
+  <si>
+    <t>Effortless OPA testing with Gherkin Reusable Specs</t>
+  </si>
+  <si>
+    <t>The OpenUI5 Developer Blog - Behind the Scenes</t>
+  </si>
+  <si>
+    <t>Behavior Driven Development with OPA5 automated tests</t>
+  </si>
+  <si>
+    <t>Virtual Tour around a company site with UI5</t>
+  </si>
+  <si>
+    <t>Easy integrations with UI5</t>
+  </si>
+  <si>
+    <t>Time or Money? Time (DateFormat) and Money (NumberFormat)!</t>
+  </si>
+  <si>
+    <t>Drafts: Extending Two-Way Binding to Provide an Editing Concept</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wouter Lemaire 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vered Constantin</t>
+    </r>
+  </si>
+  <si>
+    <t>Mini Lecture</t>
+  </si>
+  <si>
+    <t>Room B</t>
+  </si>
+  <si>
+    <t>Room C</t>
+  </si>
+  <si>
+    <t>Hands-On</t>
+  </si>
+  <si>
+    <t>Room A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo </t>
+  </si>
+  <si>
+    <t>Experiments with real-time Image processing and Augmented Reality in UI5</t>
+  </si>
+  <si>
+    <t>Meet The Expert</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPENING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Frederic Berg
+09:30 - 09:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPENING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (BROADCAST)
+Frederic Berg
+09:30 - 09:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NEWS AROUND UI5 THAT YOU ABSOLUTELY HAVE TO KNOW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(BROADCAST)
+Stefan Beck
+09:50 - 10:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NEWS AROUND UI5 THAT YOU ABSOLUTELY HAVE TO KNOW
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Stefan Beck
+09:50 - 10:30</t>
+    </r>
+  </si>
+  <si>
+    <t>CI: BUILD PROCESS &amp; AUTOMATED TESTING OF UI5 APPS</t>
+  </si>
+  <si>
+    <t>CLOSING WORDS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INTEGRATE FEED CAPABILITIES USING UI5 CONTROLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Christoph Laux
+17:00 - 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A HITCHHIKER‘S GUIDE TO THE UI5 DEMO APPS &amp; TUTORIALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Elena Makarenko
+17:20 - 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WRITITNG A REAL TIME GEOLOCATION MAP WITH OPENLAYERS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Manuel Blechschmidt 
+11:50 - 12:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEVELOPER CLINIC: UI5 CONTROLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pia Kinkel, Bohdan Pukalskyi, Dominic Holzwarth
+12:00 - 13:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LEVERAGING SERVICE WORKERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Benedikt Schölch, Tobias Sorn
+17:30 - 17:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EMBEDDED ANALYTICS WITH CHARTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pia Kinkel, Christoph Laux, Bohdan Pukalskyi
+16:00 - 17:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMART MICRO CHARTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Bohdan Pukalskyi, Dominic Holzwarth
+15:00 - 16:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TILES IN UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Christoph Laux, Bohdan Pukalskyi
+14:00 - 15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HOW TO BUILD AN ICE CREAM MACHINE WITH UI5 CONTROLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Christoph Laux, Bohdan Pukalskyi
+13:00 - 14:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EMBEDDED ANALYTICS WITH CHARTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pia Kinkel, Christoph Laux, Bohdan Pukalskyi 
+11:00 - 12:00</t>
+    </r>
+  </si>
+  <si>
+    <t>Advanced Charting Controls Coming to UI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional programming for your UI5 App </t>
+  </si>
+  <si>
+    <t>CODE-FREE FIORI APPS WITH SAP WEB IDE RAD AND LAYOUT EDITOR</t>
+  </si>
+  <si>
+    <t>Keep an eye on SAPUI5 Flexibility</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GETTING STARTED WITH UI5 ON CLOUD FOUNDRY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Frederic Berg
+17:10 - 18:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5 EVOLUTION – PERFORMANCE, ARCHITECTURAL GAPS, TRENDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Peter Muessig, Andreas Ecker
+10:40 - 11:20
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPEN-SOURCING OFFLINE UI5 APPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Tom Van Doorslaer
+10:40 - 11:20
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WRITE RELIABLE APPLICATION TESTS FOR YOUR SAP UI5 APPLICATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Maxim Naidenov
+10:40 - 11:41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>METADATA-DRIVEN CONTROLS WITH REST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Martin Schaus
+10:50 - 11:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEHAVIOR-DRIVEN DEVELOPMENT WITH OPA5 AUTOMATED TESTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Andras Gabor Konya, Lorant Guth 
+10:50 - 11:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEW DEMO KIT - YOUR WAS TO UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Petya Begovska
+11:40 - 12:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADAPTING UI @ RUNTIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Mikhail Benderskiy
+12:30 - 13:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ADVANCED CHARTING CONTROLS COMING TO UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ondrej Bohaciak, Vaclav Vopenka 
+12:30 - 13:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THE OPENUI5 DEVELOPER BLOG - BEHIND THE SCENES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Holder Schäfer
+11:40 - 12:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5 CONTROLS FOR DOCUMENT HANDLING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Pia Kinkel, Christoph Laux
+10:00 - 11:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEVELOPING CUSTOM ESLINT RULES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alexander Flammer
+12:20 - 12:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLUG IN YOUR FEATURE INTO SAP WEB IDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Wouter Lemaire, Vered Constantin
+11:30 - 12:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAPUI5 ON SAP HANA XSA - SAP FULL-STACK JAVASCRIPT DEVELOPMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+HP Seitz
+11:30 - 12:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPCOMING – UI5 ODATA V4 MODEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Patric Ksinsik, Thomas Chadzelek
+12:20 - 13:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EASY INTEGRATION WITH UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Meredith Hasset
+13:50 - 14:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COLLABORATORS WANTED FOR UI5LAB - A CUSTOM UI5 REPO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Michael Graf, Emmanuele Ricci
+14:20 - 14:40                                          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MIXED REALITY WITH OPENUI5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Dmitriy Buslov
+14:50 - 15:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BUILDING A COMPANION CONVERSATIONAL UI FOR A FIORI APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Gregor Brett
+15:20 - 15:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CI: BUILD PROCESS &amp; AUTOMATED TESTING OF UI5 APPS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Matthias Oßwald, Merlin Beutlberger
+16:40 - 17:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">REAL-TIME IMAGE PROCESSING AND AUGMENTED REALITY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Volker Buzek
+17:30 - 17:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5 SUPPORTABILITY RELOADED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Gergana Kremenska
+13:30 - 14:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WORKING WITH PDFS IN A (MOBILE) UI5 APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vincent Weiss
+14:20 - 14:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5 APPS BEYOND THE OFFICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Denny Schreber
+14:50 - 15:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONTROLLING UI5 APPS AND FLP VIA SPEECH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Aparna Narayanaswamy
+15:20 - 15:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A MODERN OPENUI5 APP PROJECT BOILERPLATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Michael Dell, Jascha Quintern
+15:50 - 16:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>KEEP AN EYE ON SAPUI5 FLEXIBILITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alexander Rauh, Sebastian Wennemers
+16:40 - 17:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FUNCTIONAL PROGRAMMING FOR YOUR UI5 APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+DJ Adams
+13:40 - 14:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FLP MEETS SAPUI5 – EXTENDING THE FIORI LAUNCHPAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Thilo Seidel
+14:50 - 15:50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FIORI 2.0 FOR YOUR APPLICATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Stanislava Baltova, Yavor Ivanov
+16:00 - 17:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEO FOR OPENUI5 APPS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Yavor Ivanov, Stanislava Baltova
+14:00 - 14:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>COMPONENTS – MORE PERFORMANCE!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Peter Muessig, Matthias Osswald
+14:50 - 15:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CREATE YOUR OWN UI5 CONTROLS - WHAT'S COMING UP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Andreas Kunz
+15:40 - 16:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TIME OR MONEY? TIME (DateFormat) AND MONEY (NumberFormat)! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Jiawei Cao, Malte Wedel
+16:30 - 17:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIRTUAL TOUR AROUND A COMPANY SITE WITH UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Helmut Tammen
+14:00 - 14:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TEASER: IMPLEMENTING CUSTOM TILES FOR SAP FIORI LAUNCHPAD AS SAPUI5 COMPONENTS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Stephan Heyne 
+14:50 - 15:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CODE-FREE FIORI APPS WITH SAP WEB IDE RAD AND LAYOUT EDITOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vered Constantin
+15:40 - 16:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DRAFTS: EXTENDING TWO-WAY BINDING TO PROVIDE AN EDITING CONCEPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Ian Robert Taylor, Dirk Teufel
+16:30 - 17:10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5 THEMING EXPLAINED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Matthias Oßwald
+18:00 - 18:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM NATIVE ANDROID TO UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan Zaruba, Tomas Krejci
+18:00 - 18:20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOT FULL STACK SCENARIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Mateusz Skadorwa, Tomasz Wilk
+15:50 - 16:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EFFORTLESS OPA TESTING WITH GHERKIN REUSABLE SPECS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Savio Dimatteo
+17:20 - 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF5743"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UI5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFA242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
+        <color rgb="FFFFA242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">@SAP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFA242"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AGENDA 2017</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +1896,114 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF26A36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF5743"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFA242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color rgb="FFFFA242"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -58,18 +2011,235 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF26A36"/>
+      <color rgb="FFF26AFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,18 +2548,2827 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="4"/>
+    <col min="2" max="2" width="1.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="C1" s="55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>0.4375</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" s="26" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
+        <v>0.5625</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" ht="5.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
+        <v>0.6875</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="44"/>
+      <c r="E59" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+    </row>
+    <row r="87" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+    </row>
+    <row r="88" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+    </row>
+    <row r="89" spans="1:15" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+    </row>
+    <row r="91" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+    </row>
+    <row r="92" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+    </row>
+    <row r="93" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+    </row>
+    <row r="94" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+    </row>
+    <row r="95" spans="1:15" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="54"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="76">
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="M46:M54"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="K50:K56"/>
+    <mergeCell ref="M56:M61"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="M13:M17"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="D63:D69"/>
+    <mergeCell ref="D73:D78"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J36:J47"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="J52:J59"/>
+    <mergeCell ref="J63:J69"/>
+    <mergeCell ref="J73:J83"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="M38:M44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10:C13" location="'Agenda UI5con@SAP'!A2" display="'Agenda UI5con@SAP'!A2"/>
+    <hyperlink ref="E10:E13" location="Details!A2" display="Details!A2"/>
+    <hyperlink ref="G10:G13" location="Details!A2" display="Details!A2"/>
+    <hyperlink ref="I11:I14" location="Details!A2" display="Details!A2"/>
+    <hyperlink ref="K11:K14" location="Details!A2" display="Details!A2"/>
+    <hyperlink ref="C15:C18" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="E15:E18" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="G17:G22" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="I16:I19" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="K16:K19" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="C20:C23" location="Details!A12" display="Details!A12"/>
+    <hyperlink ref="E20:E23" location="Details!A12" display="Details!A12"/>
+    <hyperlink ref="I21:I25" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="K21:K25" location="Details!A7" display="Details!A7"/>
+    <hyperlink ref="C29:C31" location="Details!A15" display="Details!A15"/>
+    <hyperlink ref="E27:E31" location="Details!A15" display="Details!A15"/>
+    <hyperlink ref="G28:G34" location="Details!A15" display="Details!A15"/>
+    <hyperlink ref="I31:I34" location="Details!A19" display="Details!A19"/>
+    <hyperlink ref="K31:K34" location="Details!A19" display="Details!A19"/>
+    <hyperlink ref="C33:C34" location="Details!A19" display="Details!A19"/>
+    <hyperlink ref="E33:E34" location="Details!A19" display="Details!A19"/>
+    <hyperlink ref="C36:C38" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="E36:E38" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="G36:G43" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="I36:I40" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="K36:K40" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="C40:C42" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="E40:E42" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="I42:I47" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="K42:K47" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="C44:C48" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="E44:E48" location="Details!A25" display="Details!A25"/>
+    <hyperlink ref="C50:C57" location="Details!A32" display="Details!A32"/>
+    <hyperlink ref="E50:E57" location="Details!A32" display="Details!A32"/>
+    <hyperlink ref="G45:G54" location="Details!A32" display="Details!A32"/>
+    <hyperlink ref="I50:I56" location="Details!A32" display="Details!A32"/>
+    <hyperlink ref="K50:K56" location="Details!A32" display="Details!A32"/>
+    <hyperlink ref="C59:C60" location="Details!A37" display="Details!A37"/>
+    <hyperlink ref="E59:E60" location="Details!A37" display="Details!A37"/>
+    <hyperlink ref="G57:G62" location="Details!A37" display="Details!A37"/>
+    <hyperlink ref="I58:I61" location="Details!A37" display="Details!A37"/>
+    <hyperlink ref="K58:K61" location="Details!A37" display="Details!A37"/>
+    <hyperlink ref="C62:C63" location="Details!A41" display="Details!A41"/>
+    <hyperlink ref="E62:E63" location="Details!A41" display="Details!A41"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="88.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="B1:H43">
+    <sortCondition ref="B1:B43"/>
+  </sortState>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/downloads/ui5con_2017_agenda.xlsx
+++ b/src/downloads/ui5con_2017_agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d068664\Documents\20170620 UI5Con\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d068664\WebstormProjects\gh-pages-openui5\ui5con\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agenda UI5con@SAP'!$A$1:$O$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agenda UI5con@SAP'!$A$1:$O$114</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Details!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Details!$1:$1</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -114,9 +114,6 @@
     <t>Jan Zaruba, Tomas Krejci</t>
   </si>
   <si>
-    <t>17:10 - 18:10</t>
-  </si>
-  <si>
     <t>Frederic Berg</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>All the news around UI5.</t>
-  </si>
-  <si>
     <t>Key Note</t>
   </si>
   <si>
@@ -603,9 +597,6 @@
     <t>We will present newly released and upcoming controls which we have developed in Brno Suite Controls team. We will have prototypes and demos ready for the upcoming controls and demo apps for released controls. We’ll be happy to answer any questions regarding implementation of our controls in your apps.</t>
   </si>
   <si>
-    <t>Session Description: In this session we will write a custom component using OpenLayers v3 (http://www.openlayers.de) for showing a map. This map will be bound to a XMPPJsonPatchSyncModel (https://github.com/ManuelB/XMPPJSONPatchSyncModel) to make it possible to track other people in real time on the map.</t>
-  </si>
-  <si>
     <t>In our UI5 demo app, you'll learn to build an ice cream machine. We will show the demo app and a tutorial with a step-by-step explanation of how to build this app using various UI5 Controls.</t>
   </si>
   <si>
@@ -718,13 +709,25 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>17:20 - 18:20</t>
+  </si>
+  <si>
+    <t>Last updated: 26.06.2017 14:45</t>
+  </si>
+  <si>
+    <t>SAPUI5 is evolving and thus best practices or recommended controls change over time. In this session, you'll get an update on the new supportability tool, the new DemoKit, new and updated controls, news in the framework like our plans towards OData V4 and improved Smart Controls. Finally we'll share some insights into more radical renovation activities that will come early in 2018.</t>
+  </si>
+  <si>
+    <t>In this session we will use a custom component (https://github.com/ManuelB/openui5-ol/) that wraps the OpenLayers v3 API (http://www.openlayers.de) for showing a map. This map will be bound to a XMPPJsonPatchSyncModel (https://github.com/ManuelB/XMPPJSONPatchSyncModel) to make it possible to track other people in real time on the map.You should pre-install the following software on your notebook:  git  Your favorite IDE  ejabbered (a public server will be running on the speaker notebook)  A webserver e.g. (python -m SimpleHTTPServer 8000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +811,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF26A36"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -896,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -936,6 +946,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,9 +1278,7 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1350,11 +1371,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1442,11 +1463,11 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1463,7 +1484,7 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O5" s="6">
         <v>0.40277777777777801</v>
@@ -1488,11 +1509,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -1534,11 +1555,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1547,11 +1568,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="10" t="s">
@@ -1739,7 +1760,7 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O11" s="6">
         <v>0.42361111111111099</v>
@@ -1785,7 +1806,7 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" s="6">
         <v>0.42708333333333398</v>
@@ -1810,11 +1831,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1823,15 +1844,15 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="6">
         <v>0.43055555555555602</v>
@@ -1856,11 +1877,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -1869,11 +1890,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="10" t="s">
@@ -1994,24 +2015,24 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="1"/>
       <c r="J17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="10" t="s">
@@ -2107,7 +2128,7 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O19" s="6">
         <v>0.45138888888889001</v>
@@ -2153,7 +2174,7 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O20" s="6">
         <v>0.45486111111111199</v>
@@ -2199,7 +2220,7 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O21" s="6">
         <v>0.45833333333333398</v>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="10" t="s">
@@ -2283,11 +2304,11 @@
       <c r="H23" s="18"/>
       <c r="I23" s="1"/>
       <c r="J23" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="10" t="s">
@@ -2316,11 +2337,11 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="10" t="s">
@@ -2329,11 +2350,11 @@
       <c r="H24" s="18"/>
       <c r="I24" s="1"/>
       <c r="J24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="10" t="s">
@@ -2454,24 +2475,24 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
       <c r="J27" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="10" t="s">
@@ -2508,7 +2529,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -2646,7 +2667,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="1"/>
@@ -2659,7 +2680,7 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O31" s="6">
         <v>0.49305555555555702</v>
@@ -2705,7 +2726,7 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O32" s="6">
         <v>0.49652777777777901</v>
@@ -2730,11 +2751,11 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="10" t="s">
@@ -2743,15 +2764,15 @@
       <c r="H33" s="18"/>
       <c r="I33" s="1"/>
       <c r="J33" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="6">
         <v>0.500000000000001</v>
@@ -2776,11 +2797,11 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="10" t="s">
@@ -2789,11 +2810,11 @@
       <c r="H34" s="18"/>
       <c r="I34" s="1"/>
       <c r="J34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="10" t="s">
@@ -2914,11 +2935,11 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="10" t="s">
@@ -3010,7 +3031,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="10" t="s">
@@ -3056,7 +3077,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="10" t="s">
@@ -3106,7 +3127,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="1"/>
@@ -3152,7 +3173,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="1"/>
@@ -3190,7 +3211,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -3211,7 +3232,7 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O43" s="6">
         <v>0.53472222222222399</v>
@@ -3236,7 +3257,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -3257,7 +3278,7 @@
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O44" s="6">
         <v>0.53819444444444597</v>
@@ -3295,15 +3316,15 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O45" s="6">
         <v>0.54166666666666796</v>
@@ -3562,7 +3583,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3571,11 +3592,11 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="10" t="s">
@@ -3617,11 +3638,11 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="10" t="s">
@@ -3658,7 +3679,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="1"/>
@@ -3742,7 +3763,7 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="10" t="s">
@@ -3755,15 +3776,15 @@
       <c r="H55" s="18"/>
       <c r="I55" s="1"/>
       <c r="J55" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O55" s="6">
         <v>0.57638888888889095</v>
@@ -3809,7 +3830,7 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O56" s="6">
         <v>0.57986111111111305</v>
@@ -3834,11 +3855,11 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="10" t="s">
@@ -3855,7 +3876,7 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O57" s="6">
         <v>0.58333333333333504</v>
@@ -3880,11 +3901,11 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="10" t="s">
@@ -4018,11 +4039,11 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="10" t="s">
@@ -4031,11 +4052,11 @@
       <c r="H61" s="18"/>
       <c r="I61" s="1"/>
       <c r="J61" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="10" t="s">
@@ -4077,11 +4098,11 @@
       <c r="H62" s="18"/>
       <c r="I62" s="1"/>
       <c r="J62" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="10" t="s">
@@ -4110,15 +4131,15 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="1"/>
@@ -4156,15 +4177,15 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H64" s="18"/>
       <c r="I64" s="1"/>
@@ -4215,11 +4236,11 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="10" t="s">
@@ -4294,15 +4315,15 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="1"/>
@@ -4315,7 +4336,7 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O67" s="6">
         <v>0.61805555555555802</v>
@@ -4361,7 +4382,7 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O68" s="6">
         <v>0.62152777777778001</v>
@@ -4386,11 +4407,11 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="10" t="s">
@@ -4407,7 +4428,7 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O69" s="6">
         <v>0.625000000000003</v>
@@ -4432,11 +4453,11 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="10" t="s">
@@ -4491,11 +4512,11 @@
       <c r="H71" s="18"/>
       <c r="I71" s="1"/>
       <c r="J71" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="10" t="s">
@@ -4537,11 +4558,11 @@
       <c r="H72" s="18"/>
       <c r="I72" s="1"/>
       <c r="J72" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="10" t="s">
@@ -4570,11 +4591,11 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="10" t="s">
@@ -4662,11 +4683,11 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="10" t="s">
@@ -4675,11 +4696,11 @@
       <c r="H75" s="18"/>
       <c r="I75" s="1"/>
       <c r="J75" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="10" t="s">
@@ -4708,11 +4729,11 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="10" t="s">
@@ -4762,7 +4783,7 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="1"/>
@@ -4808,7 +4829,7 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H78" s="18"/>
       <c r="I78" s="1"/>
@@ -4846,11 +4867,11 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -4867,7 +4888,7 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O79" s="6">
         <v>0.65972222222222499</v>
@@ -4913,7 +4934,7 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O80" s="6">
         <v>0.66319444444444697</v>
@@ -4946,20 +4967,20 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="1"/>
       <c r="J81" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O81" s="6">
         <v>0.66666666666666996</v>
@@ -4997,11 +5018,11 @@
       <c r="H82" s="18"/>
       <c r="I82" s="1"/>
       <c r="J82" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="10" t="s">
@@ -5122,11 +5143,11 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="10" t="s">
@@ -5135,11 +5156,11 @@
       <c r="H85" s="18"/>
       <c r="I85" s="1"/>
       <c r="J85" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="10" t="s">
@@ -5168,11 +5189,11 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="10" t="s">
@@ -5306,11 +5327,11 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="10" t="s">
@@ -5406,20 +5427,20 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91" s="18"/>
       <c r="I91" s="1"/>
       <c r="J91" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O91" s="6">
         <v>0.70138888888889195</v>
@@ -5452,20 +5473,20 @@
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="1"/>
       <c r="J92" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O92" s="6">
         <v>0.70486111111111505</v>
@@ -5528,7 +5549,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>0.71180555555555902</v>
       </c>
@@ -5578,16 +5599,14 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="G95" s="1"/>
       <c r="H95" s="17"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
@@ -5622,16 +5641,14 @@
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="G96" s="1"/>
       <c r="H96" s="18"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
@@ -5673,8 +5690,8 @@
         <v>10</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="G97" s="10" t="s">
-        <v>10</v>
+      <c r="G97" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="1"/>
@@ -5746,11 +5763,11 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="10" t="s">
@@ -5826,11 +5843,11 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="10" t="s">
@@ -5865,11 +5882,11 @@
         <v>0.73958333333333703</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="10" t="s">
@@ -5949,15 +5966,15 @@
         <v>0.750000000000004</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="1"/>
@@ -5972,7 +5989,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>0.75347222222222598</v>
       </c>
@@ -5984,8 +6001,8 @@
         <v>10</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="11" t="s">
-        <v>14</v>
+      <c r="G106" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="1"/>
@@ -6012,7 +6029,9 @@
         <v>12</v>
       </c>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -6038,7 +6057,9 @@
         <v>11</v>
       </c>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -6154,11 +6175,18 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="O113" s="6"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="O114" s="6"/>
+      <c r="A114" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="19"/>
+      <c r="N114" s="20" t="str">
+        <f>A114</f>
+        <v>Last updated: 26.06.2017 14:45</v>
+      </c>
+      <c r="O114" s="21"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
@@ -6273,8 +6301,12 @@
       <c r="O142" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A114:C114"/>
+  </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" fitToWidth="2" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToWidth="2" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
@@ -6291,8 +6323,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,25 +6340,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6337,13 +6369,13 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -6356,13 +6388,13 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -6378,19 +6410,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.40972222222222227</v>
       </c>
@@ -6398,22 +6430,22 @@
         <v>0.4375</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.40972222222222227</v>
       </c>
@@ -6421,19 +6453,19 @@
         <v>0.4375</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6447,16 +6479,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6470,16 +6502,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6493,16 +6525,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6513,19 +6545,19 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -6536,19 +6568,19 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -6559,19 +6591,19 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6585,16 +6617,16 @@
         <v>5</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6608,16 +6640,16 @@
         <v>6</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6631,16 +6663,16 @@
         <v>7</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6651,19 +6683,19 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6674,19 +6706,19 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6700,16 +6732,16 @@
         <v>5</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6723,19 +6755,19 @@
         <v>6</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.49305555555555558</v>
       </c>
@@ -6743,19 +6775,19 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6769,16 +6801,16 @@
         <v>7</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6789,19 +6821,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6812,19 +6844,19 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="F23" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6838,16 +6870,16 @@
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -6861,16 +6893,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6884,16 +6916,16 @@
         <v>7</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6904,19 +6936,19 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6927,19 +6959,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6950,19 +6982,19 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6976,16 +7008,16 @@
         <v>5</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6999,16 +7031,16 @@
         <v>6</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7022,16 +7054,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -7042,19 +7074,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -7065,19 +7097,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7091,16 +7123,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7114,16 +7146,16 @@
         <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7134,19 +7166,19 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7157,19 +7189,19 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7180,19 +7212,19 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="C39" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7206,16 +7238,16 @@
         <v>7</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7226,19 +7258,19 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7249,19 +7281,19 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7275,16 +7307,16 @@
         <v>5</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7298,16 +7330,16 @@
         <v>6</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7318,19 +7350,19 @@
         <v>0.6875</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7341,19 +7373,19 @@
         <v>0.6875</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7364,19 +7396,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C47" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7390,16 +7422,16 @@
         <v>7</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7413,16 +7445,16 @@
         <v>5</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7436,16 +7468,16 @@
         <v>6</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7456,19 +7488,19 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7479,19 +7511,19 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7502,19 +7534,19 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="C53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7525,19 +7557,19 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7548,19 +7580,19 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7571,19 +7603,19 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7594,19 +7626,19 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7617,7 +7649,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15" t="s">

--- a/src/downloads/ui5con_2017_agenda.xlsx
+++ b/src/downloads/ui5con_2017_agenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d068664\WebstormProjects\gh-pages-openui5\ui5con\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d068664\WebstormProjects\ui5con\src\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Agenda UI5con@SAP'!$A$1:$O$114</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Details!$A$1:$G$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Details!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Details!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="219">
   <si>
     <r>
       <rPr>
@@ -153,9 +153,6 @@
     <t>16:00 - 17:00</t>
   </si>
   <si>
-    <t>16:20 - 17:00</t>
-  </si>
-  <si>
     <t>Christoph Laux</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Mateusz Skadorwa, Tomasz Wilk</t>
   </si>
   <si>
-    <t>15:30 - 16:10</t>
-  </si>
-  <si>
     <t>Integrate Feed Capabilities Using UI5 Controls</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Building a companion conversational UI for a Fiori App</t>
   </si>
   <si>
-    <t>14:40 - 15:20</t>
-  </si>
-  <si>
     <t>Vered Constantin</t>
   </si>
   <si>
@@ -300,15 +291,9 @@
     <t>Michael Graf, Emanuele Ricci</t>
   </si>
   <si>
-    <t>13:50 - 14:30</t>
-  </si>
-  <si>
     <t>Stephan Heyne</t>
   </si>
   <si>
-    <t>Peter Muessig, Matthias Osswal</t>
-  </si>
-  <si>
     <t>The UI5 app to create UI5 apps</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>Functional Programming for your UI5 App</t>
   </si>
   <si>
-    <t>13:00 - 13:40</t>
-  </si>
-  <si>
     <t>Helmut Tammen</t>
   </si>
   <si>
@@ -414,9 +396,6 @@
     <t>HP Seitz</t>
   </si>
   <si>
-    <t>11:00 - 12:00</t>
-  </si>
-  <si>
     <t>Pia Kinkel, Bohdan Pukalskyi, Dominic Holzwarth</t>
   </si>
   <si>
@@ -459,9 +438,6 @@
     <t>Developer Clinic: UI5 Controls</t>
   </si>
   <si>
-    <t>10:20 - 11:00</t>
-  </si>
-  <si>
     <t>The OpenUI5 Developer Blog - Behind the Scenes</t>
   </si>
   <si>
@@ -489,9 +465,6 @@
     <t>Stefan Beck</t>
   </si>
   <si>
-    <t>09:40 - 10:20</t>
-  </si>
-  <si>
     <t>Pia Kinkel, Christoph Laux</t>
   </si>
   <si>
@@ -549,9 +522,6 @@
     <t>Key Note</t>
   </si>
   <si>
-    <t>Demo new upcoming features of UI5 regarding Metadata Driven Controls.Allow to manipulate the artifacts live in an editor and see the immediate result.Create custom control using a Fragment Control, add a Swagger service to the View and enhance the metadata.Drive the new custom control and other UI controls from the metadata.</t>
-  </si>
-  <si>
     <t>Imagine a world where development and business can understand each other without using lengthy code lines. Applying human-readable language you will have the possibility to enable everyone in your team, even your customers, to create business driven automated tests.Our solution will lead your agile workflow towards acceptance testing using OPA5 and Cucumber over Fiori stack which provide basis for behavior driven development.We are going to present a Cucumber and OPA5-based test automation framework where users write test scenarios adopting human-readable Gherkin language. Additionally, we will talk about the key test concepts of healthy test automation pyramids, appropriate placement of test levels, and misconcepts about TDD and BDD.</t>
   </si>
   <si>
@@ -651,9 +621,6 @@
     <t>Session Description: In this session I will discuss options how UI5 web apps can be used as a basis for apps beyond your typical office requirements. While SAP Fiori apps and Fiori LaunchPad are the basis for SAPs Digital Workplace of the future, there exist much more possibilities how the web can be the basis for your digitalization efforts. We are looking into WebAPIs, standards such as WebRTC and 3rd party extensions and how this can be applied in enterprise settings. Adding Cloud APIs into the mix, lots of demand for feature-rich apps can already be fulfilled leveraging the web.</t>
   </si>
   <si>
-    <t>Let`s build a simple FLP plugin (based on a UI5 Component) together. Once deployed to a FLP on Cloud Platform we will start to use the renderer extension api of FLP to place SAPUI5 controls into the FLP UI to improve the user experience of the Lauchpad AND learn that SAPUI5 and Fiori Launchpad are actually of the same kind.</t>
-  </si>
-  <si>
     <t>Building a Conversational UI for the Fiori My Inbox app using API.AI. I will run through the code needed and do a live demo.</t>
   </si>
   <si>
@@ -672,9 +639,6 @@
     <t>Based on a public OpenUI5 boilerplate project (not published, yet) we want to share our experience and knowledge on how to setup and use a modern OpenUI5 app structure and build process by using Babel, Flow and Gulp (especially addressing non-SAP developers). Furthermore an overview of very useful best practices, does &amp; don'ts and quick enhancements (like new useful methods in the app Component and BaseController) that should speed up your development workflow and that keep the app maintainable and scalable.</t>
   </si>
   <si>
-    <t>Find out everything you need to know about the new version of SAP Fiori. Learn what makes Fiori 2.0 different and which are the new UI5 features empowering Fiori 2.0 experience.In this session we will show and tell how to develop your Fiori 2.0 app from scratch and even more - how to migrate your existing app to Fiori 2.0.</t>
-  </si>
-  <si>
     <t>Social media is ubiquitous, but a feed can also include system events or comments. UI5 provides a set of controls that support you in implementing feed capabilities for your application.</t>
   </si>
   <si>
@@ -690,9 +654,6 @@
     <t>What is SAP's new extensibility approach all about? Well, the key is flexibility. Partners and customers need to adapt the UIs of SAP apps, for example add, hide or rearrange fields. Sounds technical and complicated? SAPUI5 extensibility changes all that allowing upgrade-safe, modification-free, and role-based UI changes with intuitive and easy-to-use tools – even for non-developers.What's the strategy behind it, what are the benefits, and what's the roadmap? In this session you'll find out.</t>
   </si>
   <si>
-    <t>In this session, we will demonstrate how to get started on cloud foundry. We will see how to onboard onto the platform, install the necessary tools and deploy a UI5 application which makes use of platform services to persist its data.</t>
-  </si>
-  <si>
     <t>It all started with a Proof-of-Concept of a UI5 hybrid application for discrete object recognition on mobile devices. In the course of the PoC, research led to several experiments around the key words in the session title: from real-time Image manipulation via visual object recognition up to Augmented Reality flavors, all of that within the UI5 framework. I'd like to show the results of the experiments and evaluate their sustainability and production readiness.</t>
   </si>
   <si>
@@ -714,13 +675,58 @@
     <t>17:20 - 18:20</t>
   </si>
   <si>
-    <t>Last updated: 26.06.2017 14:45</t>
-  </si>
-  <si>
     <t>SAPUI5 is evolving and thus best practices or recommended controls change over time. In this session, you'll get an update on the new supportability tool, the new DemoKit, new and updated controls, news in the framework like our plans towards OData V4 and improved Smart Controls. Finally we'll share some insights into more radical renovation activities that will come early in 2018.</t>
   </si>
   <si>
     <t>In this session we will use a custom component (https://github.com/ManuelB/openui5-ol/) that wraps the OpenLayers v3 API (http://www.openlayers.de) for showing a map. This map will be bound to a XMPPJsonPatchSyncModel (https://github.com/ManuelB/XMPPJSONPatchSyncModel) to make it possible to track other people in real time on the map.You should pre-install the following software on your notebook:  git  Your favorite IDE  ejabbered (a public server will be running on the speaker notebook)  A webserver e.g. (python -m SimpleHTTPServer 8000)</t>
+  </si>
+  <si>
+    <t>10:50 - 11:30</t>
+  </si>
+  <si>
+    <t>11:40 - 12:20</t>
+  </si>
+  <si>
+    <t>12:30 - 13:10</t>
+  </si>
+  <si>
+    <t>14:00 - 14:40</t>
+  </si>
+  <si>
+    <t>Peter Muessig, Matthias Oßwald</t>
+  </si>
+  <si>
+    <t>14:50 - 15:30</t>
+  </si>
+  <si>
+    <t>15:40 - 16:20</t>
+  </si>
+  <si>
+    <t>16:30 - 17:10</t>
+  </si>
+  <si>
+    <t>17:20 - 18:00</t>
+  </si>
+  <si>
+    <t>11:20 - 12:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Concepts of upcoming features of UI5 to ease creation of building blocks and connection of controls to Rest Service Metadata.</t>
+  </si>
+  <si>
+    <t>Find out everything you need to know about the new version of SAP Fiori. Learn what makes Fiori 2.0 different and which are the new UI5 features empowering Fiori 2.0 experience.In this session we will show and tell how to develop your Fiori 2.0 app from scratch and even more - how to migrate your existing app to Fiori 2.0.Prerequisites:You will work in SAP WebIDE, trial accounts are already created for you, so you do not need anything else than your laptop. In case of network issues, we would fall back to using nodejs, NPM and Git, so you should preferably have those installed.</t>
+  </si>
+  <si>
+    <t>In this session, we will demonstrate how to get started on cloud foundry. We will see how to onboard onto the platform, install the necessary tools and deploy a UI5 application which makes use of platform services to persist its data.Prerequisites:Please have Node.js installed on your laptop and your own hanatrial account ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's build a simple FLP plugin (based on a UI5 Component) together. Once deployed to a FLP on Cloud Platform we will start to use the renderer extension api of FLP to place SAPUI5 controls into the FLP UI to improve the user experience of the Lauchpad AND learn that SAPUI5 and Fiori Launchpad are actually of the same kind. Prerequisites:   - Laptop  - an SAP CP trial account </t>
+  </si>
+  <si>
+    <t>Last updated: 27.06.2017 14:55</t>
   </si>
 </sst>
 </file>
@@ -946,7 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -959,6 +964,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,7 +1284,9 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:C114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1371,11 +1379,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1383,17 +1391,11 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="6">
         <v>0.39583333333333331</v>
       </c>
@@ -1411,7 +1413,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.39930555555555558</v>
       </c>
@@ -1429,17 +1431,11 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="6">
         <v>0.39930555555555558</v>
       </c>
@@ -1475,17 +1471,6 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="O5" s="6">
         <v>0.40277777777777801</v>
       </c>
@@ -1509,11 +1494,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -1521,17 +1506,6 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O6" s="6">
         <v>0.40625</v>
       </c>
@@ -1555,11 +1529,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1567,17 +1541,6 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O7" s="6">
         <v>0.40972222222222199</v>
       </c>
@@ -1613,17 +1576,6 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O8" s="6">
         <v>0.41319444444444497</v>
       </c>
@@ -1659,17 +1611,6 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O9" s="6">
         <v>0.41666666666666702</v>
       </c>
@@ -1705,17 +1646,6 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O10" s="6">
         <v>0.42013888888888901</v>
       </c>
@@ -1751,17 +1681,6 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="O11" s="6">
         <v>0.42361111111111099</v>
       </c>
@@ -1779,7 +1698,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0.42708333333333398</v>
       </c>
@@ -1797,17 +1716,6 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="O12" s="6">
         <v>0.42708333333333398</v>
       </c>
@@ -1831,11 +1739,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1843,17 +1751,6 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="O13" s="6">
         <v>0.43055555555555602</v>
       </c>
@@ -1877,11 +1774,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -1889,17 +1786,6 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="6">
         <v>0.43402777777777801</v>
       </c>
@@ -1935,15 +1821,13 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="10" t="s">
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="6">
@@ -1981,15 +1865,13 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="10" t="s">
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="6">
@@ -2015,28 +1897,28 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="9" t="s">
-        <v>131</v>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="9" t="s">
-        <v>130</v>
+      <c r="L17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="10" t="s">
-        <v>10</v>
+      <c r="N17" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="O17" s="6">
         <v>0.44444444444444497</v>
@@ -2055,7 +1937,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0.44791666666666702</v>
       </c>
@@ -2073,11 +1955,11 @@
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="1"/>
@@ -2119,16 +2001,16 @@
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="10" t="s">
-        <v>10</v>
+      <c r="J19" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="10" t="s">
-        <v>10</v>
+      <c r="L19" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="10" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="O19" s="6">
         <v>0.45138888888889001</v>
@@ -2147,7 +2029,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0.45486111111111199</v>
       </c>
@@ -2173,8 +2055,8 @@
         <v>10</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="11" t="s">
-        <v>129</v>
+      <c r="N20" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="O20" s="6">
         <v>0.45486111111111199</v>
@@ -2219,8 +2101,8 @@
         <v>10</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="9" t="s">
-        <v>128</v>
+      <c r="N21" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="O21" s="6">
         <v>0.45833333333333398</v>
@@ -2291,11 +2173,11 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="10" t="s">
@@ -2304,15 +2186,15 @@
       <c r="H23" s="18"/>
       <c r="I23" s="1"/>
       <c r="J23" s="10" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="10" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="10" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="O23" s="6">
         <v>0.46527777777777901</v>
@@ -2337,11 +2219,11 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="10" t="s">
@@ -2349,16 +2231,16 @@
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="11" t="s">
-        <v>123</v>
+      <c r="J24" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="11" t="s">
-        <v>123</v>
+      <c r="L24" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="10" t="s">
-        <v>10</v>
+      <c r="N24" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="O24" s="6">
         <v>0.468750000000001</v>
@@ -2395,16 +2277,16 @@
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1" t="s">
-        <v>10</v>
+      <c r="J25" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
-        <v>10</v>
+      <c r="L25" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="10" t="s">
-        <v>10</v>
+      <c r="N25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="O25" s="6">
         <v>0.47222222222222299</v>
@@ -2441,12 +2323,12 @@
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>10</v>
+      <c r="J26" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>10</v>
+      <c r="L26" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="10" t="s">
@@ -2475,24 +2357,24 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="9" t="s">
-        <v>119</v>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="9" t="s">
-        <v>118</v>
+      <c r="L27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="10" t="s">
@@ -2529,15 +2411,15 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M28" s="1"/>
@@ -2579,12 +2461,12 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="10" t="s">
-        <v>10</v>
+      <c r="J29" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="10" t="s">
-        <v>10</v>
+      <c r="L29" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="10" t="s">
@@ -2667,7 +2549,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="1"/>
@@ -2680,7 +2562,7 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="10" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="O31" s="6">
         <v>0.49305555555555702</v>
@@ -2726,7 +2608,7 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="11" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="O32" s="6">
         <v>0.49652777777777901</v>
@@ -2751,11 +2633,11 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="10" t="s">
@@ -2764,15 +2646,15 @@
       <c r="H33" s="18"/>
       <c r="I33" s="1"/>
       <c r="J33" s="10" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="10" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O33" s="6">
         <v>0.500000000000001</v>
@@ -2797,11 +2679,11 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="10" t="s">
@@ -2809,12 +2691,12 @@
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="11" t="s">
-        <v>108</v>
+      <c r="J34" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="11" t="s">
-        <v>108</v>
+      <c r="L34" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="10" t="s">
@@ -2855,12 +2737,12 @@
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>10</v>
+      <c r="J35" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>10</v>
+      <c r="L35" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="10" t="s">
@@ -2901,12 +2783,12 @@
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>10</v>
+      <c r="J36" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>10</v>
+      <c r="L36" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="10" t="s">
@@ -2935,11 +2817,11 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="10" t="s">
@@ -2975,7 +2857,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>0.51736111111111205</v>
       </c>
@@ -3031,7 +2913,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="10" t="s">
@@ -3039,12 +2921,12 @@
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>10</v>
+      <c r="J39" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>10</v>
+      <c r="L39" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="10" t="s">
@@ -3077,7 +2959,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="10" t="s">
@@ -3085,11 +2967,11 @@
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M40" s="1"/>
@@ -3127,15 +3009,15 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M41" s="1"/>
@@ -3173,15 +3055,15 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M42" s="1"/>
@@ -3211,7 +3093,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -3223,16 +3105,16 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="10" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="O43" s="6">
         <v>0.53472222222222399</v>
@@ -3257,7 +3139,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -3269,16 +3151,16 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O44" s="6">
         <v>0.53819444444444597</v>
@@ -3315,16 +3197,16 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="9" t="s">
-        <v>98</v>
+      <c r="J45" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="K45" s="1"/>
-      <c r="L45" s="9" t="s">
-        <v>97</v>
+      <c r="L45" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O45" s="6">
         <v>0.54166666666666796</v>
@@ -3343,7 +3225,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>0.54513888888888995</v>
       </c>
@@ -3361,12 +3243,12 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="10" t="s">
-        <v>10</v>
+      <c r="J46" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="K46" s="1"/>
-      <c r="L46" s="10" t="s">
-        <v>10</v>
+      <c r="L46" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="10" t="s">
@@ -3407,11 +3289,11 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M47" s="1"/>
@@ -3453,11 +3335,11 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="1"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M48" s="1"/>
@@ -3499,11 +3381,11 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M49" s="1"/>
@@ -3545,11 +3427,11 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K50" s="1"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M50" s="1"/>
@@ -3583,7 +3465,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3591,12 +3473,12 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="10" t="s">
-        <v>94</v>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K51" s="1"/>
-      <c r="L51" s="10" t="s">
-        <v>93</v>
+      <c r="L51" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="10" t="s">
@@ -3637,12 +3519,12 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="11" t="s">
-        <v>92</v>
+      <c r="J52" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K52" s="1"/>
-      <c r="L52" s="11" t="s">
-        <v>92</v>
+      <c r="L52" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="10" t="s">
@@ -3679,7 +3561,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="1"/>
@@ -3763,7 +3645,7 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="10" t="s">
@@ -3775,16 +3657,16 @@
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="9" t="s">
-        <v>89</v>
+      <c r="J55" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K55" s="1"/>
-      <c r="L55" s="9" t="s">
-        <v>88</v>
+      <c r="L55" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O55" s="6">
         <v>0.57638888888889095</v>
@@ -3821,16 +3703,16 @@
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K56" s="1"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O56" s="6">
         <v>0.57986111111111305</v>
@@ -3855,11 +3737,11 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="10" t="s">
@@ -3867,16 +3749,16 @@
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="10" t="s">
-        <v>10</v>
+      <c r="J57" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="K57" s="1"/>
-      <c r="L57" s="10" t="s">
-        <v>10</v>
+      <c r="L57" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O57" s="6">
         <v>0.58333333333333504</v>
@@ -3901,11 +3783,11 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="10" t="s">
@@ -4039,11 +3921,11 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="10" t="s">
@@ -4052,11 +3934,11 @@
       <c r="H61" s="18"/>
       <c r="I61" s="1"/>
       <c r="J61" s="10" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="10" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="10" t="s">
@@ -4079,7 +3961,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>0.60069444444444697</v>
       </c>
@@ -4097,12 +3979,12 @@
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="11" t="s">
-        <v>76</v>
+      <c r="J62" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K62" s="1"/>
-      <c r="L62" s="11" t="s">
-        <v>76</v>
+      <c r="L62" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="10" t="s">
@@ -4131,24 +4013,24 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>10</v>
+      <c r="J63" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
-        <v>10</v>
+      <c r="L63" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="10" t="s">
@@ -4177,24 +4059,24 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H64" s="18"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1" t="s">
-        <v>10</v>
+      <c r="J64" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
-        <v>10</v>
+      <c r="L64" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="10" t="s">
@@ -4235,12 +4117,12 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="9" t="s">
-        <v>70</v>
+      <c r="J65" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K65" s="1"/>
-      <c r="L65" s="9" t="s">
-        <v>69</v>
+      <c r="L65" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="10" t="s">
@@ -4281,11 +4163,11 @@
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K66" s="1"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M66" s="1"/>
@@ -4315,28 +4197,28 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="10" t="s">
-        <v>10</v>
+      <c r="J67" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="K67" s="1"/>
-      <c r="L67" s="10" t="s">
-        <v>10</v>
+      <c r="L67" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="10" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O67" s="6">
         <v>0.61805555555555802</v>
@@ -4382,7 +4264,7 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O68" s="6">
         <v>0.62152777777778001</v>
@@ -4407,11 +4289,11 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="10" t="s">
@@ -4428,7 +4310,7 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="O69" s="6">
         <v>0.625000000000003</v>
@@ -4453,11 +4335,11 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="10" t="s">
@@ -4512,11 +4394,11 @@
       <c r="H71" s="18"/>
       <c r="I71" s="1"/>
       <c r="J71" s="10" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="10" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="10" t="s">
@@ -4557,12 +4439,12 @@
       </c>
       <c r="H72" s="18"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="11" t="s">
-        <v>57</v>
+      <c r="J72" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K72" s="1"/>
-      <c r="L72" s="11" t="s">
-        <v>57</v>
+      <c r="L72" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="10" t="s">
@@ -4591,11 +4473,11 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="10" t="s">
@@ -4603,12 +4485,12 @@
       </c>
       <c r="H73" s="18"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1" t="s">
-        <v>10</v>
+      <c r="J73" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="K73" s="1"/>
-      <c r="L73" s="1" t="s">
-        <v>10</v>
+      <c r="L73" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="10" t="s">
@@ -4649,12 +4531,12 @@
       </c>
       <c r="H74" s="18"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1" t="s">
-        <v>10</v>
+      <c r="J74" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="K74" s="1"/>
-      <c r="L74" s="1" t="s">
-        <v>10</v>
+      <c r="L74" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="10" t="s">
@@ -4683,11 +4565,11 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="10" t="s">
@@ -4695,12 +4577,12 @@
       </c>
       <c r="H75" s="18"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="9" t="s">
-        <v>52</v>
+      <c r="J75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="9" t="s">
-        <v>51</v>
+      <c r="L75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="10" t="s">
@@ -4729,11 +4611,11 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="10" t="s">
@@ -4741,11 +4623,11 @@
       </c>
       <c r="H76" s="18"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="1"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M76" s="1"/>
@@ -4783,16 +4665,16 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="10" t="s">
-        <v>10</v>
+      <c r="J77" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="K77" s="1"/>
-      <c r="L77" s="10" t="s">
-        <v>10</v>
+      <c r="L77" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="10" t="s">
@@ -4829,7 +4711,7 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H78" s="18"/>
       <c r="I78" s="1"/>
@@ -4867,11 +4749,11 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -4888,7 +4770,7 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="O79" s="6">
         <v>0.65972222222222499</v>
@@ -4934,7 +4816,7 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O80" s="6">
         <v>0.66319444444444697</v>
@@ -4967,20 +4849,20 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="1"/>
       <c r="J81" s="10" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="10" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="9" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O81" s="6">
         <v>0.66666666666666996</v>
@@ -4999,7 +4881,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>0.67013888888889195</v>
       </c>
@@ -5017,12 +4899,12 @@
       </c>
       <c r="H82" s="18"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="11" t="s">
-        <v>39</v>
+      <c r="J82" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K82" s="1"/>
-      <c r="L82" s="11" t="s">
-        <v>39</v>
+      <c r="L82" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="10" t="s">
@@ -5063,12 +4945,12 @@
       </c>
       <c r="H83" s="18"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
-        <v>10</v>
+      <c r="J83" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="K83" s="1"/>
-      <c r="L83" s="1" t="s">
-        <v>10</v>
+      <c r="L83" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="10" t="s">
@@ -5109,12 +4991,12 @@
       </c>
       <c r="H84" s="18"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>10</v>
+      <c r="J84" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="K84" s="1"/>
-      <c r="L84" s="1" t="s">
-        <v>10</v>
+      <c r="L84" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="10" t="s">
@@ -5143,11 +5025,11 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="10" t="s">
@@ -5155,12 +5037,12 @@
       </c>
       <c r="H85" s="18"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="9" t="s">
-        <v>36</v>
+      <c r="J85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="K85" s="1"/>
-      <c r="L85" s="9" t="s">
-        <v>35</v>
+      <c r="L85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="10" t="s">
@@ -5189,11 +5071,11 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="10" t="s">
@@ -5201,11 +5083,11 @@
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K86" s="1"/>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M86" s="1"/>
@@ -5247,12 +5129,12 @@
       </c>
       <c r="H87" s="18"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="10" t="s">
-        <v>10</v>
+      <c r="J87" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="K87" s="1"/>
-      <c r="L87" s="10" t="s">
-        <v>10</v>
+      <c r="L87" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="10" t="s">
@@ -5327,11 +5209,11 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="10" t="s">
@@ -5427,20 +5309,20 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91" s="18"/>
       <c r="I91" s="1"/>
       <c r="J91" s="10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="10" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O91" s="6">
         <v>0.70138888888889195</v>
@@ -5477,12 +5359,12 @@
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="11" t="s">
-        <v>27</v>
+      <c r="J92" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K92" s="1"/>
-      <c r="L92" s="11" t="s">
-        <v>27</v>
+      <c r="L92" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="11" t="s">
@@ -5523,15 +5405,17 @@
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
-        <v>10</v>
+      <c r="J93" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K93" s="1"/>
-      <c r="L93" s="1" t="s">
-        <v>10</v>
+      <c r="L93" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="N93" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="O93" s="6">
         <v>0.70833333333333703</v>
       </c>
@@ -5549,7 +5433,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>0.71180555555555902</v>
       </c>
@@ -5567,15 +5451,17 @@
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1" t="s">
-        <v>10</v>
+      <c r="J94" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="K94" s="1"/>
-      <c r="L94" s="1" t="s">
-        <v>10</v>
+      <c r="L94" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="N94" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O94" s="6">
         <v>0.71180555555555902</v>
       </c>
@@ -5606,7 +5492,9 @@
         <v>24</v>
       </c>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H95" s="17"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="s">
@@ -5617,7 +5505,9 @@
         <v>10</v>
       </c>
       <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="N95" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O95" s="6">
         <v>0.71527777777778101</v>
       </c>
@@ -5648,7 +5538,9 @@
         <v>22</v>
       </c>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H96" s="18"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1" t="s">
@@ -5659,7 +5551,9 @@
         <v>10</v>
       </c>
       <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="N96" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O96" s="6">
         <v>0.718750000000004</v>
       </c>
@@ -5695,11 +5589,17 @@
       </c>
       <c r="H97" s="18"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="L97" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="N97" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O97" s="6">
         <v>0.72222222222222598</v>
       </c>
@@ -5735,11 +5635,17 @@
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="L98" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="N98" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O98" s="6">
         <v>0.72569444444444797</v>
       </c>
@@ -5775,11 +5681,17 @@
       </c>
       <c r="H99" s="18"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="L99" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="N99" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O99" s="6">
         <v>0.72916666666666996</v>
       </c>
@@ -5815,11 +5727,17 @@
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="L100" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="N100" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O100" s="6">
         <v>0.73263888888889295</v>
       </c>
@@ -5855,11 +5773,17 @@
       </c>
       <c r="H101" s="18"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="J101" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="L101" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="N101" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O101" s="6">
         <v>0.73611111111111505</v>
       </c>
@@ -5894,11 +5818,17 @@
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="J102" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
+      <c r="L102" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="N102" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="O102" s="6">
         <v>0.73958333333333703</v>
       </c>
@@ -5922,11 +5852,17 @@
       </c>
       <c r="H103" s="18"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="J103" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="L103" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="N103" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="O103" s="6">
         <v>0.74305555555556002</v>
       </c>
@@ -5950,11 +5886,17 @@
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="J104" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="L104" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="N104" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="O104" s="6">
         <v>0.74652777777778201</v>
       </c>
@@ -5978,9 +5920,13 @@
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="L105" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="6">
@@ -6006,9 +5952,13 @@
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="L106" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="6">
@@ -6034,9 +5984,13 @@
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="J107" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="6">
@@ -6058,13 +6012,17 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="11" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="L108" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="6">
@@ -6177,16 +6135,16 @@
       <c r="A113" s="6"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="19"/>
-      <c r="N114" s="20" t="str">
+      <c r="A114" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="N114" s="19" t="str">
         <f>A114</f>
-        <v>Last updated: 26.06.2017 14:45</v>
-      </c>
-      <c r="O114" s="21"/>
+        <v>Last updated: 27.06.2017 14:55</v>
+      </c>
+      <c r="O114" s="20"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
@@ -6323,8 +6281,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A29" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6340,25 +6298,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6369,13 +6327,13 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -6388,38 +6346,38 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>0.40277777777777773</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="B4" s="14">
-        <v>0.43055555555555558</v>
+        <v>0.4375</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6430,1123 +6388,1123 @@
         <v>0.4375</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>0.40972222222222227</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B6" s="14">
-        <v>0.4375</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="B8" s="14">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0.4375</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0.4375</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>0.43055555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="B9" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>0.44444444444444442</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="B10" s="14">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>0.44444444444444442</v>
-      </c>
       <c r="B12" s="14">
-        <v>0.4861111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>0.44444444444444442</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B13" s="14">
-        <v>0.47222222222222227</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>0.47916666666666669</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="B17" s="14">
-        <v>0.50694444444444442</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="F21" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>0.5625</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="B25" s="14">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="14">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B24" s="14">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B25" s="14">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>0.54166666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="B26" s="14">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>0.5625</v>
-      </c>
       <c r="B27" s="14">
-        <v>0.59027777777777779</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>0.56944444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B28" s="14">
         <v>0.61111111111111105</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>0.57638888888888895</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B29" s="14">
-        <v>0.59027777777777779</v>
+        <v>0.625</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>0.57638888888888895</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B30" s="14">
-        <v>0.60416666666666663</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>0.57638888888888895</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="B31" s="14">
-        <v>0.60416666666666663</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>0.58333333333333337</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B32" s="14">
-        <v>0.625</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="F32" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>0.59722222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B33" s="14">
-        <v>0.61111111111111105</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>0.59722222222222221</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B34" s="14">
-        <v>0.61111111111111105</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>0.61111111111111105</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B35" s="14">
-        <v>0.63888888888888895</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
-        <v>0.61111111111111105</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="B36" s="14">
-        <v>0.63888888888888895</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>0.61805555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="B37" s="14">
-        <v>0.63194444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
-        <v>0.61805555555555558</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="B38" s="14">
-        <v>0.63194444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
-        <v>0.61805555555555558</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="B39" s="14">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B40" s="14">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="B41" s="14">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>0.625</v>
-      </c>
-      <c r="B40" s="14">
+      <c r="B42" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="B43" s="14">
+        <v>0.6875</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="B41" s="14">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="B42" s="14">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="B44" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B43" s="14">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B44" s="14">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>6</v>
-      </c>
       <c r="D44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="F44" s="15" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>0.65972222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B45" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>0.6875</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>0.65972222222222221</v>
-      </c>
       <c r="B46" s="14">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>0.6875</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="B47" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
-        <v>0.66666666666666663</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="B48" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="B49" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="B50" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D50" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B51" s="14">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B52" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B53" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="B49" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="B50" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="B51" s="14">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="B52" s="14">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="B53" s="14">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>14</v>
-      </c>
       <c r="E53" s="15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7557,7 +7515,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>19</v>
@@ -7566,10 +7524,10 @@
         <v>21</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7580,7 +7538,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>18</v>
@@ -7589,10 +7547,10 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7603,7 +7561,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>13</v>
@@ -7612,10 +7570,10 @@
         <v>16</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7626,7 +7584,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>12</v>
@@ -7635,28 +7593,25 @@
         <v>15</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58">
         <v>0.77777777777777779</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/downloads/ui5con_2017_agenda.xlsx
+++ b/src/downloads/ui5con_2017_agenda.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -228,15 +228,9 @@
     <t>Aparna Narayanaswamy</t>
   </si>
   <si>
-    <t>Gregor Brett</t>
-  </si>
-  <si>
     <t>Controlling UI5 Apps and FLP via Speech</t>
   </si>
   <si>
-    <t>Building a companion conversational UI for a Fiori App</t>
-  </si>
-  <si>
     <t>Vered Constantin</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>Session Description: In this session I will discuss options how UI5 web apps can be used as a basis for apps beyond your typical office requirements. While SAP Fiori apps and Fiori LaunchPad are the basis for SAPs Digital Workplace of the future, there exist much more possibilities how the web can be the basis for your digitalization efforts. We are looking into WebAPIs, standards such as WebRTC and 3rd party extensions and how this can be applied in enterprise settings. Adding Cloud APIs into the mix, lots of demand for feature-rich apps can already be fulfilled leveraging the web.</t>
   </si>
   <si>
-    <t>Building a Conversational UI for the Fiori My Inbox app using API.AI. I will run through the code needed and do a live demo.</t>
-  </si>
-  <si>
     <t>Modern browsers provide Web Speech API, enabling the application of speech recognition in web applications.We have developed an application that demonstrates how this browser capability can be leveraged in the FLP as a control mechanism.</t>
   </si>
   <si>
@@ -723,10 +714,13 @@
     <t>In this session, we will demonstrate how to get started on cloud foundry. We will see how to onboard onto the platform, install the necessary tools and deploy a UI5 application which makes use of platform services to persist its data.Prerequisites:Please have Node.js installed on your laptop and your own hanatrial account ready.</t>
   </si>
   <si>
-    <t xml:space="preserve">Let's build a simple FLP plugin (based on a UI5 Component) together. Once deployed to a FLP on Cloud Platform we will start to use the renderer extension api of FLP to place SAPUI5 controls into the FLP UI to improve the user experience of the Lauchpad AND learn that SAPUI5 and Fiori Launchpad are actually of the same kind. Prerequisites:   - Laptop  - an SAP CP trial account </t>
-  </si>
-  <si>
-    <t>Last updated: 27.06.2017 14:55</t>
+    <t>17:30 - 18:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's build a simple FLP plugin (based on a UI5 Component) together. Once deployed to a FLP on Cloud Platform we will start to use the renderer extension api of FLP to place SAPUI5 controls into the FLP UI to improve the user experience of the Lauchpad AND learn that SAPUI5 and Fiori Launchpad are actually of the same kind. Prerequisites:   Laptop  an SAP CP trial account </t>
+  </si>
+  <si>
+    <t>Last updated: 28.06.2017 16:20</t>
   </si>
 </sst>
 </file>
@@ -1284,9 +1278,7 @@
   </sheetPr>
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:C114"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1379,11 +1371,11 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -1494,11 +1486,11 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -1529,11 +1521,11 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1739,11 +1731,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
@@ -1774,11 +1766,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
@@ -1897,15 +1889,15 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="1"/>
@@ -1918,7 +1910,7 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O17" s="6">
         <v>0.44444444444444497</v>
@@ -2002,11 +1994,11 @@
       <c r="H19" s="18"/>
       <c r="I19" s="1"/>
       <c r="J19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="10" t="s">
@@ -2173,11 +2165,11 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="10" t="s">
@@ -2194,7 +2186,7 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O23" s="6">
         <v>0.46527777777777901</v>
@@ -2219,11 +2211,11 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="10" t="s">
@@ -2240,7 +2232,7 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O24" s="6">
         <v>0.468750000000001</v>
@@ -2278,15 +2270,15 @@
       <c r="H25" s="18"/>
       <c r="I25" s="1"/>
       <c r="J25" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O25" s="6">
         <v>0.47222222222222299</v>
@@ -2324,11 +2316,11 @@
       <c r="H26" s="18"/>
       <c r="I26" s="1"/>
       <c r="J26" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="10" t="s">
@@ -2357,15 +2349,15 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="1"/>
@@ -2411,7 +2403,7 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="1"/>
@@ -2462,11 +2454,11 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="10" t="s">
@@ -2549,7 +2541,7 @@
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="1"/>
@@ -2608,7 +2600,7 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O32" s="6">
         <v>0.49652777777777901</v>
@@ -2633,11 +2625,11 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="10" t="s">
@@ -2654,7 +2646,7 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O33" s="6">
         <v>0.500000000000001</v>
@@ -2679,11 +2671,11 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="10" t="s">
@@ -2738,11 +2730,11 @@
       <c r="H35" s="18"/>
       <c r="I35" s="1"/>
       <c r="J35" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="10" t="s">
@@ -2784,11 +2776,11 @@
       <c r="H36" s="18"/>
       <c r="I36" s="1"/>
       <c r="J36" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="10" t="s">
@@ -2817,11 +2809,11 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="10" t="s">
@@ -2913,7 +2905,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="10" t="s">
@@ -2922,11 +2914,11 @@
       <c r="H39" s="18"/>
       <c r="I39" s="1"/>
       <c r="J39" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="10" t="s">
@@ -2959,7 +2951,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="10" t="s">
@@ -3009,7 +3001,7 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="1"/>
@@ -3055,7 +3047,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="1"/>
@@ -3093,7 +3085,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -3114,7 +3106,7 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O43" s="6">
         <v>0.53472222222222399</v>
@@ -3139,7 +3131,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -3160,7 +3152,7 @@
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O44" s="6">
         <v>0.53819444444444597</v>
@@ -3198,15 +3190,15 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O45" s="6">
         <v>0.54166666666666796</v>
@@ -3244,11 +3236,11 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="10" t="s">
@@ -3465,7 +3457,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3561,7 +3553,7 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="1"/>
@@ -3645,7 +3637,7 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="10" t="s">
@@ -3666,7 +3658,7 @@
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O55" s="6">
         <v>0.57638888888889095</v>
@@ -3712,7 +3704,7 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O56" s="6">
         <v>0.57986111111111305</v>
@@ -3737,11 +3729,11 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="10" t="s">
@@ -3750,15 +3742,15 @@
       <c r="H57" s="18"/>
       <c r="I57" s="1"/>
       <c r="J57" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O57" s="6">
         <v>0.58333333333333504</v>
@@ -3783,11 +3775,11 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="10" t="s">
@@ -3921,11 +3913,11 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="10" t="s">
@@ -4013,24 +4005,24 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="1"/>
       <c r="J63" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="10" t="s">
@@ -4059,24 +4051,24 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H64" s="18"/>
       <c r="I64" s="1"/>
       <c r="J64" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="10" t="s">
@@ -4197,28 +4189,28 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="1"/>
       <c r="J67" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O67" s="6">
         <v>0.61805555555555802</v>
@@ -4264,7 +4256,7 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O68" s="6">
         <v>0.62152777777778001</v>
@@ -4289,11 +4281,11 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="10" t="s">
@@ -4310,7 +4302,7 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O69" s="6">
         <v>0.625000000000003</v>
@@ -4335,11 +4327,11 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="10" t="s">
@@ -4473,11 +4465,11 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="9" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="10" t="s">
@@ -4486,11 +4478,11 @@
       <c r="H73" s="18"/>
       <c r="I73" s="1"/>
       <c r="J73" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="10" t="s">
@@ -4532,11 +4524,11 @@
       <c r="H74" s="18"/>
       <c r="I74" s="1"/>
       <c r="J74" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="10" t="s">
@@ -4565,7 +4557,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="10" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="10" t="s">
@@ -4670,11 +4662,11 @@
       <c r="H77" s="18"/>
       <c r="I77" s="1"/>
       <c r="J77" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="10" t="s">
@@ -4770,7 +4762,7 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O79" s="6">
         <v>0.65972222222222499</v>
@@ -4862,7 +4854,7 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O81" s="6">
         <v>0.66666666666666996</v>
@@ -4946,11 +4938,11 @@
       <c r="H83" s="18"/>
       <c r="I83" s="1"/>
       <c r="J83" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="10" t="s">
@@ -4992,11 +4984,11 @@
       <c r="H84" s="18"/>
       <c r="I84" s="1"/>
       <c r="J84" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="10" t="s">
@@ -5452,11 +5444,11 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="10" t="s">
@@ -5761,7 +5753,7 @@
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="10" t="s">
@@ -5805,8 +5797,8 @@
       <c r="A102" s="6">
         <v>0.73958333333333703</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>17</v>
+      <c r="C102" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="11" t="s">
@@ -5839,7 +5831,7 @@
       <c r="A103" s="6">
         <v>0.74305555555556002</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="1"/>
@@ -5873,7 +5865,7 @@
       <c r="A104" s="6">
         <v>0.74652777777778201</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="1"/>
@@ -5887,15 +5879,15 @@
       <c r="H104" s="18"/>
       <c r="I104" s="1"/>
       <c r="J104" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M104" s="1"/>
       <c r="N104" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O104" s="6">
         <v>0.74652777777778201</v>
@@ -5907,8 +5899,8 @@
       <c r="A105" s="6">
         <v>0.750000000000004</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>16</v>
+      <c r="C105" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="9" t="s">
@@ -5935,12 +5927,12 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>0.75347222222222598</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>10</v>
+      <c r="C106" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="10" t="s">
@@ -5971,8 +5963,8 @@
       <c r="A107" s="6">
         <v>0.75694444444444897</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>13</v>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="10" t="s">
@@ -6003,8 +5995,8 @@
       <c r="A108" s="6">
         <v>0.76041666666667096</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>11</v>
+      <c r="C108" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="11" t="s">
@@ -6012,7 +6004,7 @@
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -6136,13 +6128,13 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
       <c r="N114" s="19" t="str">
         <f>A114</f>
-        <v>Last updated: 27.06.2017 14:55</v>
+        <v>Last updated: 28.06.2017 16:20</v>
       </c>
       <c r="O114" s="20"/>
     </row>
@@ -6279,10 +6271,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,25 +6290,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6327,13 +6319,13 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -6346,13 +6338,13 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -6365,19 +6357,19 @@
         <v>0.4375</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6388,19 +6380,19 @@
         <v>0.4375</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6411,19 +6403,19 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -6434,19 +6426,19 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="210" x14ac:dyDescent="0.25">
@@ -6457,19 +6449,19 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6483,16 +6475,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6506,16 +6498,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6529,16 +6521,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6555,13 +6547,13 @@
         <v>43</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6572,19 +6564,19 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6595,19 +6587,19 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6621,16 +6613,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6644,16 +6636,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6664,19 +6656,19 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6690,16 +6682,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6710,19 +6702,19 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6733,19 +6725,19 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -6759,16 +6751,16 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6782,16 +6774,16 @@
         <v>6</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6805,16 +6797,16 @@
         <v>7</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6825,19 +6817,19 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6848,19 +6840,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -6871,19 +6863,19 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6897,16 +6889,16 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -6920,16 +6912,16 @@
         <v>6</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6943,16 +6935,16 @@
         <v>7</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -6963,19 +6955,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -6986,19 +6978,19 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7009,19 +7001,19 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7032,19 +7024,19 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7055,19 +7047,19 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7081,16 +7073,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7104,16 +7096,16 @@
         <v>6</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7127,16 +7119,16 @@
         <v>7</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7147,19 +7139,19 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7170,19 +7162,19 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7196,16 +7188,16 @@
         <v>5</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7219,16 +7211,16 @@
         <v>6</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7239,7 +7231,7 @@
         <v>0.6875</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>37</v>
@@ -7248,10 +7240,10 @@
         <v>45</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7262,7 +7254,7 @@
         <v>0.6875</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>36</v>
@@ -7271,10 +7263,10 @@
         <v>44</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7285,7 +7277,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>30</v>
@@ -7294,10 +7286,10 @@
         <v>41</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7314,13 +7306,13 @@
         <v>43</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7340,10 +7332,10 @@
         <v>50</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7363,10 +7355,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7377,7 +7369,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>25</v>
@@ -7386,10 +7378,10 @@
         <v>32</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7400,7 +7392,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>24</v>
@@ -7409,10 +7401,10 @@
         <v>31</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7432,10 +7424,10 @@
         <v>38</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -7446,7 +7438,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>14</v>
@@ -7455,10 +7447,10 @@
         <v>23</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -7478,10 +7470,10 @@
         <v>35</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -7501,10 +7493,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -7512,10 +7504,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B54" s="14">
-        <v>0.74305555555555547</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>19</v>
@@ -7524,10 +7516,10 @@
         <v>21</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -7538,7 +7530,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>18</v>
@@ -7547,13 +7539,13 @@
         <v>20</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>0.75</v>
       </c>
@@ -7561,57 +7553,37 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B57" s="14">
-        <v>0.76388888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>12</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B58">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
